--- a/Historical Data/ABT_financial_report.xlsx
+++ b/Historical Data/ABT_financial_report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jleibowitz/Desktop/Github/FinancialAnalysis/Historical Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey\Desktop\Github\FinancialAnalysis\Historical Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22960" yWindow="5220" windowWidth="28560" windowHeight="17380" activeTab="1"/>
+    <workbookView xWindow="22956" yWindow="5220" windowWidth="28560" windowHeight="17376" tabRatio="823" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document and Entity Information" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <sheet name="Taxes on Earnings (Details)" sheetId="65" r:id="rId65"/>
     <sheet name="Segment Information (Details)" sheetId="66" r:id="rId66"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2966,7 +2966,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_(&quot;$ &quot;#,##0_);_(&quot;$ &quot;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$ &quot;#,##0.00_);_(&quot;$ &quot;\(#,##0.00\)"/>
@@ -3003,7 +3003,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3153,11 +3153,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3197,13 +3259,6 @@
     </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3252,6 +3307,37 @@
     <xf numFmtId="37" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3261,6 +3347,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3557,32 +3646,32 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3590,7 +3679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -3598,7 +3687,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3606,7 +3695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3614,7 +3703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -3622,7 +3711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -3630,7 +3719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -3638,7 +3727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -3646,7 +3735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -3654,7 +3743,7 @@
         <v>1753187766</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -3662,7 +3751,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
@@ -3686,32 +3775,32 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>161</v>
       </c>
@@ -3735,32 +3824,32 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>163</v>
       </c>
@@ -3782,32 +3871,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="405" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>165</v>
       </c>
@@ -3829,32 +3918,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>167</v>
       </c>
@@ -3876,32 +3965,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>169</v>
       </c>
@@ -3923,32 +4012,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>171</v>
       </c>
@@ -3970,32 +4059,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>173</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="330" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>173</v>
       </c>
@@ -4017,32 +4106,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>175</v>
       </c>
@@ -4064,32 +4153,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>177</v>
       </c>
@@ -4111,32 +4200,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>179</v>
       </c>
@@ -4156,28 +4245,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4185,91 +4274,91 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>7390</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>6335</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <v>3067</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>3062</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>584</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>589</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>2542</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <v>2440</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>6782</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <v>6577</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="29">
         <v>608</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <v>-242</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -4279,9 +4368,9 @@
       <c r="C11" s="5">
         <v>226</v>
       </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -4292,7 +4381,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -4302,9 +4391,9 @@
       <c r="C13" s="5">
         <v>-16</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4312,7 +4401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -4323,68 +4412,69 @@
         <v>-1166</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="15">
         <v>431</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="35">
         <v>736</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="16">
         <v>22</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="37">
         <v>350</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="17">
         <v>409</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="39">
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="37">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="40">
         <v>418</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="41">
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -4395,7 +4485,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
@@ -4406,7 +4496,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -4417,12 +4507,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
@@ -4433,7 +4523,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -4441,7 +4531,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -4452,7 +4542,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -4463,7 +4553,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
@@ -4474,7 +4564,7 @@
         <v>1727356</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -4485,7 +4575,7 @@
         <v>7839</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
@@ -4496,7 +4586,7 @@
         <v>1735195</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>52</v>
       </c>
@@ -4510,6 +4600,7 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4519,32 +4610,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>181</v>
       </c>
@@ -4566,32 +4657,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>183</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>183</v>
       </c>
@@ -4613,32 +4704,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>185</v>
       </c>
@@ -4660,32 +4751,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>187</v>
       </c>
@@ -4707,32 +4798,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>189</v>
       </c>
@@ -4754,32 +4845,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>192</v>
       </c>
@@ -4787,7 +4878,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>194</v>
       </c>
@@ -4809,32 +4900,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>197</v>
       </c>
@@ -4842,7 +4933,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>199</v>
       </c>
@@ -4864,32 +4955,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>202</v>
       </c>
@@ -4911,32 +5002,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>204</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>205</v>
       </c>
@@ -4958,32 +5049,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>207</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>208</v>
       </c>
@@ -5003,28 +5094,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -5035,12 +5126,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -5051,7 +5142,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -5062,7 +5153,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -5073,7 +5164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -5081,7 +5172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -5092,7 +5183,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -5103,7 +5194,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -5114,12 +5205,12 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -5130,7 +5221,7 @@
         <v>-3452</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -5141,7 +5232,7 @@
         <v>-2521</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
@@ -5149,7 +5240,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
@@ -5160,7 +5251,7 @@
         <v>-84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>68</v>
       </c>
@@ -5186,37 +5277,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>212</v>
       </c>
@@ -5238,37 +5329,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>217</v>
       </c>
@@ -5276,17 +5367,17 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>217</v>
       </c>
@@ -5308,32 +5399,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>221</v>
       </c>
@@ -5355,31 +5446,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>223</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>224</v>
       </c>
@@ -5387,7 +5478,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>226</v>
       </c>
@@ -5395,7 +5486,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>228</v>
       </c>
@@ -5403,7 +5494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>230</v>
       </c>
@@ -5425,31 +5516,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>233</v>
       </c>
@@ -5471,32 +5562,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>236</v>
       </c>
@@ -5518,23 +5609,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>238</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -5551,12 +5642,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>241</v>
       </c>
@@ -5567,17 +5658,17 @@
         <v>23978</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>243</v>
       </c>
@@ -5585,17 +5676,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>245</v>
       </c>
@@ -5603,17 +5694,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>241</v>
       </c>
@@ -5635,24 +5726,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>248</v>
       </c>
@@ -5660,12 +5751,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>250</v>
       </c>
@@ -5673,7 +5764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -5684,17 +5775,17 @@
         <v>6335</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>252</v>
       </c>
@@ -5702,7 +5793,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>254</v>
       </c>
@@ -5710,17 +5801,17 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>252</v>
       </c>
@@ -5728,7 +5819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>254</v>
       </c>
@@ -5736,17 +5827,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5757,17 +5848,17 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -5778,17 +5869,17 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -5799,17 +5890,17 @@
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -5820,17 +5911,17 @@
         <v>950</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -5841,17 +5932,17 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -5862,17 +5953,17 @@
         <v>730</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
@@ -5883,17 +5974,17 @@
         <v>912</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
@@ -5904,17 +5995,17 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
@@ -5925,17 +6016,17 @@
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>26</v>
       </c>
@@ -5946,17 +6037,17 @@
         <v>787</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>26</v>
       </c>
@@ -5967,17 +6058,17 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>26</v>
       </c>
@@ -5988,17 +6079,17 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
@@ -6009,17 +6100,17 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>26</v>
       </c>
@@ -6030,17 +6121,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>26</v>
       </c>
@@ -6051,17 +6142,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>26</v>
       </c>
@@ -6072,17 +6163,17 @@
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -6093,17 +6184,17 @@
         <v>730</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>26</v>
       </c>
@@ -6114,17 +6205,17 @@
         <v>730</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>26</v>
       </c>
@@ -6135,17 +6226,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>26</v>
       </c>
@@ -6156,17 +6247,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>26</v>
       </c>
@@ -6177,17 +6268,17 @@
         <v>927</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6198,17 +6289,17 @@
         <v>432</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>26</v>
       </c>
@@ -6219,17 +6310,17 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>26</v>
       </c>
@@ -6240,17 +6331,17 @@
         <v>715</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>26</v>
       </c>
@@ -6261,17 +6352,17 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>26</v>
       </c>
@@ -6282,17 +6373,17 @@
         <v>417</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
@@ -6303,17 +6394,17 @@
         <v>911</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>26</v>
       </c>
@@ -6324,17 +6415,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>26</v>
       </c>
@@ -6345,17 +6436,17 @@
         <v>695</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
@@ -6366,17 +6457,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>26</v>
       </c>
@@ -6387,17 +6478,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>26</v>
       </c>
@@ -6408,17 +6499,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>26</v>
       </c>
@@ -6429,17 +6520,17 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>26</v>
       </c>
@@ -6450,17 +6541,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>26</v>
       </c>
@@ -6471,17 +6562,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>26</v>
       </c>
@@ -6489,17 +6580,17 @@
         <v>559</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>26</v>
       </c>
@@ -6507,17 +6598,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>26</v>
       </c>
@@ -6525,17 +6616,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>26</v>
       </c>
@@ -6546,17 +6637,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>26</v>
       </c>
@@ -6567,17 +6658,17 @@
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>26</v>
       </c>
@@ -6588,17 +6679,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>26</v>
       </c>
@@ -6609,17 +6700,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>26</v>
       </c>
@@ -6630,17 +6721,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>26</v>
       </c>
@@ -6651,17 +6742,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>26</v>
       </c>
@@ -6672,17 +6763,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>26</v>
       </c>
@@ -6693,17 +6784,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>26</v>
       </c>
@@ -6714,17 +6805,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>26</v>
       </c>
@@ -6735,17 +6826,17 @@
         <v>703</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>26</v>
       </c>
@@ -6756,17 +6847,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>26</v>
       </c>
@@ -6777,17 +6868,17 @@
         <v>399</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>26</v>
       </c>
@@ -6798,17 +6889,17 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>26</v>
       </c>
@@ -6819,17 +6910,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>26</v>
       </c>
@@ -6840,17 +6931,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>26</v>
       </c>
@@ -6861,17 +6952,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>26</v>
       </c>
@@ -6882,17 +6973,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>26</v>
       </c>
@@ -6918,37 +7009,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>314</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>317</v>
       </c>
@@ -6956,17 +7047,17 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>317</v>
       </c>
@@ -6974,17 +7065,17 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>319</v>
       </c>
@@ -6992,7 +7083,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>321</v>
       </c>
@@ -7000,17 +7091,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>319</v>
       </c>
@@ -7018,7 +7109,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>321</v>
       </c>
@@ -7040,32 +7131,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>327</v>
       </c>
@@ -7073,7 +7164,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>329</v>
       </c>
@@ -7081,7 +7172,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>330</v>
       </c>
@@ -7105,24 +7196,24 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7130,12 +7221,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
@@ -7146,7 +7237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -7154,7 +7245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>72</v>
       </c>
@@ -7180,37 +7271,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>331</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>334</v>
       </c>
@@ -7218,17 +7309,17 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>334</v>
       </c>
@@ -7236,17 +7327,17 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>334</v>
       </c>
@@ -7254,17 +7345,17 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>334</v>
       </c>
@@ -7286,32 +7377,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>341</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>343</v>
       </c>
@@ -7319,7 +7410,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>344</v>
       </c>
@@ -7327,7 +7418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>345</v>
       </c>
@@ -7335,7 +7426,7 @@
         <v>-43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>346</v>
       </c>
@@ -7357,24 +7448,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7382,12 +7473,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -7398,17 +7489,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -7434,13 +7525,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>349</v>
       </c>
@@ -7451,12 +7542,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>84</v>
       </c>
@@ -7467,17 +7558,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>352</v>
       </c>
@@ -7488,7 +7579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
@@ -7499,7 +7590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>84</v>
       </c>
@@ -7510,7 +7601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -7518,7 +7609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>90</v>
       </c>
@@ -7529,7 +7620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -7540,7 +7631,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -7551,7 +7642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>353</v>
       </c>
@@ -7573,24 +7664,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7598,12 +7689,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>355</v>
       </c>
@@ -7614,7 +7705,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>356</v>
       </c>
@@ -7640,24 +7731,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7665,12 +7756,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>359</v>
       </c>
@@ -7681,17 +7772,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>361</v>
       </c>
@@ -7699,17 +7790,17 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>363</v>
       </c>
@@ -7735,7 +7826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -7744,21 +7835,21 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -7772,12 +7863,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>368</v>
       </c>
@@ -7788,7 +7879,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>141</v>
       </c>
@@ -7796,17 +7887,17 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>141</v>
       </c>
@@ -7814,17 +7905,17 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>371</v>
       </c>
@@ -7832,17 +7923,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>373</v>
       </c>
@@ -7850,7 +7941,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>368</v>
       </c>
@@ -7858,17 +7949,17 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>375</v>
       </c>
@@ -7892,13 +7983,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>376</v>
       </c>
@@ -7909,12 +8000,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>377</v>
       </c>
@@ -7925,7 +8016,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>378</v>
       </c>
@@ -7933,7 +8024,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>379</v>
       </c>
@@ -7941,17 +8032,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>377</v>
       </c>
@@ -7962,17 +8053,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>382</v>
       </c>
@@ -7980,17 +8071,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>377</v>
       </c>
@@ -8012,24 +8103,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -8037,12 +8128,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>385</v>
       </c>
@@ -8050,7 +8141,7 @@
         <v>30897</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
@@ -8061,7 +8152,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>386</v>
       </c>
@@ -8069,17 +8160,17 @@
         <v>31399</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>385</v>
       </c>
@@ -8090,7 +8181,7 @@
         <v>-4959</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>388</v>
       </c>
@@ -8098,7 +8189,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>389</v>
       </c>
@@ -8109,7 +8200,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -8120,7 +8211,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>386</v>
       </c>
@@ -8131,17 +8222,17 @@
         <v>-4284</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>385</v>
       </c>
@@ -8152,7 +8243,7 @@
         <v>-2284</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>388</v>
       </c>
@@ -8160,7 +8251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>389</v>
       </c>
@@ -8168,7 +8259,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>391</v>
       </c>
@@ -8179,7 +8270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
@@ -8190,7 +8281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>386</v>
       </c>
@@ -8201,17 +8292,17 @@
         <v>-2244</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>385</v>
       </c>
@@ -8222,7 +8313,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>389</v>
       </c>
@@ -8230,7 +8321,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>391</v>
       </c>
@@ -8238,7 +8329,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
@@ -8246,7 +8337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>386</v>
       </c>
@@ -8254,17 +8345,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>385</v>
       </c>
@@ -8275,7 +8366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>388</v>
       </c>
@@ -8283,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>389</v>
       </c>
@@ -8294,7 +8385,7 @@
         <v>-69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>391</v>
       </c>
@@ -8305,7 +8396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -8316,7 +8407,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>386</v>
       </c>
@@ -8327,17 +8418,17 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>395</v>
       </c>
@@ -8360,13 +8451,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -8386,12 +8477,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>402</v>
       </c>
@@ -8399,12 +8490,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>404</v>
       </c>
@@ -8412,17 +8503,17 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>406</v>
       </c>
@@ -8430,7 +8521,7 @@
         <v>23600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>407</v>
       </c>
@@ -8438,7 +8529,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>408</v>
       </c>
@@ -8446,7 +8537,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>409</v>
       </c>
@@ -8454,7 +8545,7 @@
         <v>254000000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>410</v>
       </c>
@@ -8462,7 +8553,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>411</v>
       </c>
@@ -8470,7 +8561,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>412</v>
       </c>
@@ -8478,7 +8569,7 @@
         <v>0.87080000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>413</v>
       </c>
@@ -8486,7 +8577,7 @@
         <v>39.36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>414</v>
       </c>
@@ -8494,17 +8585,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>416</v>
       </c>
@@ -8512,7 +8603,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>404</v>
       </c>
@@ -8520,17 +8611,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>418</v>
       </c>
@@ -8538,7 +8629,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>402</v>
       </c>
@@ -8555,15 +8646,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -8574,12 +8667,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
@@ -8590,7 +8683,7 @@
         <v>9407</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
@@ -8601,7 +8694,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>77</v>
       </c>
@@ -8612,12 +8705,12 @@
         <v>5249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
@@ -8628,7 +8721,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -8639,7 +8732,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
@@ -8650,7 +8743,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
@@ -8661,7 +8754,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>83</v>
       </c>
@@ -8672,7 +8765,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>84</v>
       </c>
@@ -8683,7 +8776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>85</v>
       </c>
@@ -8694,7 +8787,7 @@
         <v>20147</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -8705,7 +8798,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>87</v>
       </c>
@@ -8716,7 +8809,7 @@
         <v>15265</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>88</v>
       </c>
@@ -8727,7 +8820,7 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>89</v>
       </c>
@@ -8738,7 +8831,7 @@
         <v>7607</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -8749,7 +8842,7 @@
         <v>21473</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
@@ -8760,7 +8853,7 @@
         <v>24020</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -8771,7 +8864,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
@@ -8782,7 +8875,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>94</v>
       </c>
@@ -8793,12 +8886,12 @@
         <v>76250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>96</v>
       </c>
@@ -8809,7 +8902,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>97</v>
       </c>
@@ -8820,7 +8913,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>98</v>
       </c>
@@ -8831,7 +8924,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>99</v>
       </c>
@@ -8842,7 +8935,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
@@ -8853,7 +8946,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
@@ -8864,7 +8957,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>102</v>
       </c>
@@ -8875,7 +8968,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>103</v>
       </c>
@@ -8886,7 +8979,7 @@
         <v>8912</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>104</v>
       </c>
@@ -8897,7 +8990,7 @@
         <v>27210</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>105</v>
       </c>
@@ -8908,7 +9001,7 @@
         <v>9030</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>106</v>
       </c>
@@ -8919,12 +9012,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>109</v>
       </c>
@@ -8935,7 +9028,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
@@ -8946,7 +9039,7 @@
         <v>23206</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
@@ -8957,7 +9050,7 @@
         <v>-10225</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
@@ -8968,7 +9061,7 @@
         <v>23978</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -8979,7 +9072,7 @@
         <v>-6062</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>113</v>
       </c>
@@ -8990,7 +9083,7 @@
         <v>30897</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>114</v>
       </c>
@@ -9001,7 +9094,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>115</v>
       </c>
@@ -9012,7 +9105,7 @@
         <v>31098</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
@@ -9034,7 +9127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -9043,7 +9136,7 @@
     <col min="5" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>420</v>
       </c>
@@ -9063,12 +9156,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>425</v>
       </c>
@@ -9079,12 +9172,12 @@
         <v>24020</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>404</v>
       </c>
@@ -9092,17 +9185,17 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>426</v>
       </c>
@@ -9110,7 +9203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>408</v>
       </c>
@@ -9118,7 +9211,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>410</v>
       </c>
@@ -9126,12 +9219,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>427</v>
       </c>
@@ -9139,7 +9232,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>425</v>
       </c>
@@ -9147,7 +9240,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>428</v>
       </c>
@@ -9155,7 +9248,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>429</v>
       </c>
@@ -9163,7 +9256,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>430</v>
       </c>
@@ -9171,7 +9264,7 @@
         <v>-2600</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>431</v>
       </c>
@@ -9179,7 +9272,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>432</v>
       </c>
@@ -9187,7 +9280,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>433</v>
       </c>
@@ -9195,7 +9288,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>434</v>
       </c>
@@ -9203,7 +9296,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>435</v>
       </c>
@@ -9211,7 +9304,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>436</v>
       </c>
@@ -9219,7 +9312,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>437</v>
       </c>
@@ -9227,7 +9320,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>438</v>
       </c>
@@ -9235,7 +9328,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>439</v>
       </c>
@@ -9243,17 +9336,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>404</v>
       </c>
@@ -9261,17 +9354,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>442</v>
       </c>
@@ -9279,7 +9372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>443</v>
       </c>
@@ -9287,7 +9380,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>444</v>
       </c>
@@ -9295,17 +9388,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>446</v>
       </c>
@@ -9313,17 +9406,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>442</v>
       </c>
@@ -9342,13 +9435,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>448</v>
       </c>
@@ -9362,12 +9455,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>452</v>
       </c>
@@ -9375,7 +9468,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>453</v>
       </c>
@@ -9383,7 +9476,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>454</v>
       </c>
@@ -9391,7 +9484,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>455</v>
       </c>
@@ -9410,23 +9503,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>456</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -9434,12 +9527,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
@@ -9450,7 +9543,7 @@
         <v>24020</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>457</v>
       </c>
@@ -9458,17 +9551,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>91</v>
       </c>
@@ -9476,17 +9569,17 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
@@ -9494,17 +9587,17 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
@@ -9512,17 +9605,17 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
@@ -9544,23 +9637,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>458</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -9568,12 +9661,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>459</v>
       </c>
@@ -9584,7 +9677,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>460</v>
       </c>
@@ -9595,7 +9688,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>461</v>
       </c>
@@ -9603,7 +9696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>462</v>
       </c>
@@ -9611,7 +9704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>463</v>
       </c>
@@ -9622,7 +9715,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>464</v>
       </c>
@@ -9630,7 +9723,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>465</v>
       </c>
@@ -9638,7 +9731,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>466</v>
       </c>
@@ -9646,7 +9739,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>467</v>
       </c>
@@ -9654,7 +9747,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>468</v>
       </c>
@@ -9662,17 +9755,17 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>469</v>
       </c>
@@ -9680,17 +9773,17 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>469</v>
       </c>
@@ -9698,17 +9791,17 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>469</v>
       </c>
@@ -9730,37 +9823,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>473</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>475</v>
       </c>
@@ -9768,7 +9861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>476</v>
       </c>
@@ -9776,7 +9869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>477</v>
       </c>
@@ -9784,7 +9877,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>478</v>
       </c>
@@ -9792,17 +9885,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>475</v>
       </c>
@@ -9810,7 +9903,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>476</v>
       </c>
@@ -9818,7 +9911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>477</v>
       </c>
@@ -9826,7 +9919,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>478</v>
       </c>
@@ -9834,17 +9927,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>476</v>
       </c>
@@ -9852,17 +9945,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>476</v>
       </c>
@@ -9870,17 +9963,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>476</v>
       </c>
@@ -9888,17 +9981,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>476</v>
       </c>
@@ -9906,17 +9999,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>476</v>
       </c>
@@ -9938,32 +10031,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>484</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>486</v>
       </c>
@@ -9971,17 +10064,17 @@
         <v>143000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>488</v>
       </c>
@@ -9989,17 +10082,17 @@
         <v>5505363</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>490</v>
       </c>
@@ -10007,17 +10100,17 @@
         <v>861129</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>492</v>
       </c>
@@ -10039,32 +10132,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>493</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>495</v>
       </c>
@@ -10072,7 +10165,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>496</v>
       </c>
@@ -10080,17 +10173,17 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>498</v>
       </c>
@@ -10098,7 +10191,7 @@
         <v>36582743</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>499</v>
       </c>
@@ -10106,7 +10199,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>501</v>
       </c>
@@ -10114,7 +10207,7 @@
         <v>41.14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>502</v>
       </c>
@@ -10122,7 +10215,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>503</v>
       </c>
@@ -10130,7 +10223,7 @@
         <v>23261149</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>504</v>
       </c>
@@ -10138,7 +10231,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>506</v>
       </c>
@@ -10146,7 +10239,7 @@
         <v>37.17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>507</v>
       </c>
@@ -10168,13 +10261,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
     <col min="2" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
@@ -10191,12 +10284,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>512</v>
       </c>
@@ -10204,7 +10297,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>402</v>
       </c>
@@ -10212,7 +10305,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>513</v>
       </c>
@@ -10220,7 +10313,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>514</v>
       </c>
@@ -10228,7 +10321,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>515</v>
       </c>
@@ -10236,7 +10329,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>516</v>
       </c>
@@ -10244,17 +10337,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>514</v>
       </c>
@@ -10262,7 +10355,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>518</v>
       </c>
@@ -10270,17 +10363,17 @@
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>514</v>
       </c>
@@ -10288,7 +10381,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>518</v>
       </c>
@@ -10296,7 +10389,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>522</v>
       </c>
@@ -10315,23 +10408,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>523</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -10339,17 +10432,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>526</v>
       </c>
@@ -10360,17 +10453,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>526</v>
       </c>
@@ -10381,7 +10474,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>528</v>
       </c>
@@ -10389,7 +10482,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>529</v>
       </c>
@@ -10397,17 +10490,17 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>526</v>
       </c>
@@ -10432,13 +10525,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>532</v>
       </c>
@@ -10449,12 +10542,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>533</v>
       </c>
@@ -10465,7 +10558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>534</v>
       </c>
@@ -10476,17 +10569,17 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>534</v>
       </c>
@@ -10497,17 +10590,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>533</v>
       </c>
@@ -10518,17 +10611,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>534</v>
       </c>
@@ -10539,17 +10632,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>533</v>
       </c>
@@ -10560,17 +10653,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>534</v>
       </c>
@@ -10592,13 +10685,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -10609,12 +10702,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
@@ -10625,7 +10718,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>120</v>
       </c>
@@ -10636,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>121</v>
       </c>
@@ -10647,7 +10740,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>122</v>
       </c>
@@ -10658,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>123</v>
       </c>
@@ -10669,7 +10762,7 @@
         <v>2400000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
@@ -10680,7 +10773,7 @@
         <v>1965908188</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>125</v>
       </c>
@@ -10702,24 +10795,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -10727,17 +10820,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>543</v>
       </c>
@@ -10748,17 +10841,17 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>543</v>
       </c>
@@ -10769,17 +10862,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>546</v>
       </c>
@@ -10790,7 +10883,7 @@
         <v>-91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>543</v>
       </c>
@@ -10801,17 +10894,17 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>546</v>
       </c>
@@ -10834,13 +10927,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>548</v>
       </c>
@@ -10851,12 +10944,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>377</v>
       </c>
@@ -10867,7 +10960,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>550</v>
       </c>
@@ -10878,7 +10971,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>551</v>
       </c>
@@ -10889,17 +10982,17 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>377</v>
       </c>
@@ -10910,17 +11003,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>553</v>
       </c>
@@ -10931,7 +11024,7 @@
         <v>-27718</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>550</v>
       </c>
@@ -10942,7 +11035,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>551</v>
       </c>
@@ -10953,7 +11046,7 @@
         <v>-205</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>554</v>
       </c>
@@ -10964,17 +11057,17 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>377</v>
       </c>
@@ -10985,17 +11078,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>377</v>
       </c>
@@ -11006,17 +11099,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>553</v>
       </c>
@@ -11027,7 +11120,7 @@
         <v>-29018</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>550</v>
       </c>
@@ -11038,7 +11131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>551</v>
       </c>
@@ -11049,7 +11142,7 @@
         <v>-205</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>554</v>
       </c>
@@ -11060,17 +11153,17 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>377</v>
       </c>
@@ -11081,17 +11174,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>377</v>
       </c>
@@ -11113,13 +11206,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>560</v>
       </c>
@@ -11130,12 +11223,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>533</v>
       </c>
@@ -11146,7 +11239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>534</v>
       </c>
@@ -11157,7 +11250,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>377</v>
       </c>
@@ -11168,17 +11261,17 @@
         <v>883</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>380</v>
       </c>
@@ -11189,7 +11282,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>94</v>
       </c>
@@ -11200,7 +11293,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>562</v>
       </c>
@@ -11211,7 +11304,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>563</v>
       </c>
@@ -11222,7 +11315,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>564</v>
       </c>
@@ -11233,7 +11326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>565</v>
       </c>
@@ -11244,17 +11337,17 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>533</v>
       </c>
@@ -11265,7 +11358,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>534</v>
       </c>
@@ -11276,17 +11369,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>380</v>
       </c>
@@ -11297,7 +11390,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
@@ -11308,17 +11401,17 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
@@ -11329,7 +11422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>562</v>
       </c>
@@ -11340,7 +11433,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>563</v>
       </c>
@@ -11351,7 +11444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>565</v>
       </c>
@@ -11362,17 +11455,17 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>533</v>
       </c>
@@ -11383,7 +11476,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>534</v>
       </c>
@@ -11394,17 +11487,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>564</v>
       </c>
@@ -11415,7 +11508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>565</v>
       </c>
@@ -11426,17 +11519,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>377</v>
       </c>
@@ -11458,13 +11551,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>571</v>
       </c>
@@ -11472,12 +11565,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>573</v>
       </c>
@@ -11485,7 +11578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>574</v>
       </c>
@@ -11493,17 +11586,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>576</v>
       </c>
@@ -11511,17 +11604,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>578</v>
       </c>
@@ -11529,17 +11622,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>578</v>
       </c>
@@ -11558,24 +11651,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -11583,17 +11676,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>243</v>
       </c>
@@ -11601,17 +11694,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>583</v>
       </c>
@@ -11622,7 +11715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>584</v>
       </c>
@@ -11633,7 +11726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>585</v>
       </c>
@@ -11644,12 +11737,12 @@
         <v>-152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>587</v>
       </c>
@@ -11660,7 +11753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>588</v>
       </c>
@@ -11671,12 +11764,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>363</v>
       </c>
@@ -11687,17 +11780,17 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>583</v>
       </c>
@@ -11708,7 +11801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>584</v>
       </c>
@@ -11719,7 +11812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>585</v>
       </c>
@@ -11730,12 +11823,12 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>587</v>
       </c>
@@ -11746,7 +11839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>590</v>
       </c>
@@ -11757,7 +11850,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>588</v>
       </c>
@@ -11768,12 +11861,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>363</v>
       </c>
@@ -11784,17 +11877,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>592</v>
       </c>
@@ -11817,7 +11910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -11825,21 +11918,21 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -11853,12 +11946,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>595</v>
       </c>
@@ -11866,7 +11959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>596</v>
       </c>
@@ -11874,7 +11967,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>597</v>
       </c>
@@ -11885,7 +11978,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>600</v>
       </c>
@@ -11893,7 +11986,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>601</v>
       </c>
@@ -11901,7 +11994,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>602</v>
       </c>
@@ -11909,17 +12002,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>604</v>
       </c>
@@ -11930,17 +12023,17 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>600</v>
       </c>
@@ -11948,17 +12041,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>607</v>
       </c>
@@ -11969,7 +12062,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>596</v>
       </c>
@@ -11977,17 +12070,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>608</v>
       </c>
@@ -11995,17 +12088,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>608</v>
       </c>
@@ -12013,17 +12106,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>361</v>
       </c>
@@ -12046,24 +12139,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>610</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -12071,12 +12164,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>611</v>
       </c>
@@ -12087,7 +12180,7 @@
         <v>6335</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>612</v>
       </c>
@@ -12098,7 +12191,7 @@
         <v>-242</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -12109,7 +12202,7 @@
         <v>-522</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -12120,7 +12213,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>613</v>
       </c>
@@ -12128,17 +12221,17 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>611</v>
       </c>
@@ -12149,17 +12242,17 @@
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>611</v>
       </c>
@@ -12170,17 +12263,17 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>611</v>
       </c>
@@ -12191,17 +12284,17 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>611</v>
       </c>
@@ -12212,17 +12305,17 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>611</v>
       </c>
@@ -12233,17 +12326,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>611</v>
       </c>
@@ -12254,7 +12347,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>612</v>
       </c>
@@ -12265,17 +12358,17 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>611</v>
       </c>
@@ -12286,7 +12379,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>612</v>
       </c>
@@ -12297,17 +12390,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>611</v>
       </c>
@@ -12318,7 +12411,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>612</v>
       </c>
@@ -12329,17 +12422,17 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>611</v>
       </c>
@@ -12350,7 +12443,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>612</v>
       </c>
@@ -12361,17 +12454,17 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>611</v>
       </c>
@@ -12382,7 +12475,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>612</v>
       </c>
@@ -12393,17 +12486,17 @@
         <v>619</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>621</v>
       </c>
@@ -12414,17 +12507,17 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>623</v>
       </c>
@@ -12435,7 +12528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>624</v>
       </c>
@@ -12446,7 +12539,7 @@
         <v>-204</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>625</v>
       </c>
@@ -12457,7 +12550,7 @@
         <v>-171</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>28</v>
       </c>
@@ -12468,7 +12561,7 @@
         <v>-522</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>626</v>
       </c>
@@ -12492,26 +12585,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -12519,12 +12614,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -12535,12 +12630,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
@@ -12551,7 +12646,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -12562,7 +12657,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>130</v>
       </c>
@@ -12573,7 +12668,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>131</v>
       </c>
@@ -12584,7 +12679,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>132</v>
       </c>
@@ -12592,7 +12687,7 @@
         <v>-1151</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>133</v>
       </c>
@@ -12603,7 +12698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -12614,7 +12709,7 @@
         <v>-162</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>135</v>
       </c>
@@ -12625,7 +12720,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>136</v>
       </c>
@@ -12636,12 +12731,12 @@
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>138</v>
       </c>
@@ -12652,7 +12747,7 @@
         <v>-272</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>139</v>
       </c>
@@ -12660,7 +12755,7 @@
         <v>-13027</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>140</v>
       </c>
@@ -12668,7 +12763,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>141</v>
       </c>
@@ -12676,7 +12771,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>142</v>
       </c>
@@ -12687,7 +12782,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>143</v>
       </c>
@@ -12698,7 +12793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>144</v>
       </c>
@@ -12709,12 +12804,12 @@
         <v>-6154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>146</v>
       </c>
@@ -12725,7 +12820,7 @@
         <v>-1455</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>147</v>
       </c>
@@ -12736,7 +12831,7 @@
         <v>-2505</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>148</v>
       </c>
@@ -12744,7 +12839,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>149</v>
       </c>
@@ -12755,7 +12850,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>150</v>
       </c>
@@ -12766,7 +12861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>151</v>
       </c>
@@ -12777,7 +12872,7 @@
         <v>-460</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>152</v>
       </c>
@@ -12788,7 +12883,7 @@
         <v>-4399</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>153</v>
       </c>
@@ -12799,7 +12894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>154</v>
       </c>
@@ -12810,7 +12905,7 @@
         <v>-9914</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>155</v>
       </c>
@@ -12821,7 +12916,7 @@
         <v>18620</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>156</v>
       </c>
@@ -12845,34 +12940,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>157</v>
       </c>
@@ -12896,32 +12993,32 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>159</v>
       </c>
